--- a/xlsx/voc-normal-top-by-haul.xlsx
+++ b/xlsx/voc-normal-top-by-haul.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -47,58 +47,40 @@
     <t>1</t>
   </si>
   <si>
-    <t>AlexeiD</t>
-  </si>
-  <si>
-    <t>90 ч. 56 мин. 3 сек.</t>
+    <t>Mephisto</t>
+  </si>
+  <si>
+    <t>35 ч. 14 мин. 0 сек.</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>lemming</t>
-  </si>
-  <si>
-    <t>43 ч. 23 мин. 50 сек.</t>
+    <t>Saida</t>
+  </si>
+  <si>
+    <t>35 ч. 7 мин. 45 сек.</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Mephisto</t>
-  </si>
-  <si>
-    <t>35 ч. 14 мин. 0 сек.</t>
+    <t>Jurist</t>
+  </si>
+  <si>
+    <t>33 ч. 41 мин. 55 сек.</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Saida</t>
-  </si>
-  <si>
-    <t>35 ч. 7 мин. 45 сек.</t>
+    <t>Sallynar</t>
+  </si>
+  <si>
+    <t>27 ч. 1 мин. 30 сек.</t>
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>Jurist</t>
-  </si>
-  <si>
-    <t>33 ч. 41 мин. 55 сек.</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Sallynar</t>
-  </si>
-  <si>
-    <t>27 ч. 1 мин. 30 сек.</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>????????</t>
@@ -689,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -743,223 +725,159 @@
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>30297.0</v>
+        <v>30190.0</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>691.0</v>
+        <v>441.0</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>10161.0</v>
+        <v>2837.0</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>548.189</v>
+        <v>366.612</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>1.41458</v>
+        <v>1.80787</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>602.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="11" t="n">
-        <v>44152.35506944444</v>
+        <v>40925.673634259256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>30252.0</v>
+        <v>30042.0</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>470.0</v>
+        <v>290.0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2750.0</v>
+        <v>1758.0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>355.458</v>
+        <v>240.628</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.17801</v>
+        <v>2.09641</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>402.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" s="10" t="n">
-        <v>43858.76458333333</v>
+        <v>42297.880891203706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>30190.0</v>
+        <v>30188.0</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>441.0</v>
+        <v>500.0</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>2837.0</v>
+        <v>2583.0</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>366.612</v>
+        <v>397.889</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.80787</v>
+        <v>2.84005</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>40925.673634259256</v>
+        <v>42158.95642361111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>30042.0</v>
+        <v>30103.0</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>290.0</v>
+        <v>405.0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1758.0</v>
+        <v>1956.0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>240.628</v>
+        <v>285.186</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.09641</v>
+        <v>2.25482</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.0</v>
+        <v>278.0</v>
       </c>
       <c r="J5" s="10" t="n">
-        <v>42297.880891203706</v>
+        <v>43214.65688657408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>30188.0</v>
+        <v>30021.0</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>500.0</v>
+        <v>306.0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>2583.0</v>
+        <v>1218.0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>397.889</v>
+        <v>253.36</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.84005</v>
+        <v>2.66945</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" s="11" t="n">
-        <v>42158.95642361111</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12" t="n">
-        <v>30103.0</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>405.0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1956.0</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>285.186</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.25482</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>278.0</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>43214.65688657408</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13" t="n">
-        <v>30021.0</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1218.0</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>253.36</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>2.66945</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="11" t="n">
         <v>39897.689571759256</v>
       </c>
     </row>
@@ -970,8 +888,6 @@
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/xlsx/voc-normal-top-by-haul.xlsx
+++ b/xlsx/voc-normal-top-by-haul.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -47,40 +47,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>Mephisto</t>
-  </si>
-  <si>
-    <t>35 ч. 14 мин. 0 сек.</t>
+    <t>Saida</t>
+  </si>
+  <si>
+    <t>35 ч. 7 мин. 45 сек.</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Saida</t>
-  </si>
-  <si>
-    <t>35 ч. 7 мин. 45 сек.</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Jurist</t>
-  </si>
-  <si>
-    <t>33 ч. 41 мин. 55 сек.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Sallynar</t>
-  </si>
-  <si>
-    <t>27 ч. 1 мин. 30 сек.</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>????????</t>
@@ -671,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -725,159 +698,63 @@
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>30190.0</v>
+        <v>30042.0</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>441.0</v>
+        <v>290.0</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>2837.0</v>
+        <v>1758.0</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>366.612</v>
+        <v>240.628</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>1.80787</v>
+        <v>2.09641</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="J2" s="11" t="n">
-        <v>40925.673634259256</v>
+        <v>42297.880891203706</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>30042.0</v>
+        <v>30021.0</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>290.0</v>
+        <v>306.0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1758.0</v>
+        <v>1218.0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>240.628</v>
+        <v>253.36</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.09641</v>
+        <v>2.66945</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" s="10" t="n">
-        <v>42297.880891203706</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="n">
-        <v>30188.0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>2583.0</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>397.889</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>2.84005</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>42158.95642361111</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>30103.0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>405.0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>1956.0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>285.186</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.25482</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>278.0</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>43214.65688657408</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>30021.0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1218.0</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>253.36</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>2.66945</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="11" t="n">
         <v>39897.689571759256</v>
       </c>
     </row>
@@ -885,9 +762,6 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/xlsx/voc-normal-top-by-haul.xlsx
+++ b/xlsx/voc-normal-top-by-haul.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Sallynar</t>
+  </si>
+  <si>
+    <t>27 ч. 1 мин. 30 сек.</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>????????</t>
@@ -644,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -730,31 +739,63 @@
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>30021.0</v>
+        <v>30103.0</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>285.186</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>2.25482</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>43214.65688657408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>30021.0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>306.0</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>1218.0</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>253.36</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>2.66945</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J4" s="11" t="n">
         <v>39897.689571759256</v>
       </c>
     </row>
@@ -762,6 +803,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/xlsx/voc-normal-top-by-haul.xlsx
+++ b/xlsx/voc-normal-top-by-haul.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Sallynar</t>
-  </si>
-  <si>
-    <t>27 ч. 1 мин. 30 сек.</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>????????</t>
@@ -653,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -739,63 +730,31 @@
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>30103.0</v>
+        <v>30021.0</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>405.0</v>
+        <v>306.0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1956.0</v>
+        <v>1218.0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>285.186</v>
+        <v>253.36</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.25482</v>
+        <v>2.66945</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>278.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" s="10" t="n">
-        <v>43214.65688657408</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="n">
-        <v>30021.0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1218.0</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>253.36</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>2.66945</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="11" t="n">
         <v>39897.689571759256</v>
       </c>
     </row>
@@ -803,7 +762,6 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
